--- a/Analysis/Security_Aptitude_Analysis.xlsx
+++ b/Analysis/Security_Aptitude_Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waseem/Documents/GitHub/CBAS/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waseem/Documents/GitHub/CBAS-SAP-SecurityAptitudeAssessment/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52A1858-96FE-FB49-88DE-FA93652BFD6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B19CDA6-FBAE-B44F-BC59-FD11BB0B9C3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="51200" windowHeight="21140" xr2:uid="{1B611E9F-6123-6041-A9CE-2CAE7CD1F40A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{1B611E9F-6123-6041-A9CE-2CAE7CD1F40A}"/>
   </bookViews>
   <sheets>
     <sheet name="Guideline" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="200" r:id="rId8"/>
+    <pivotCache cacheId="7" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -853,11 +853,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -871,20 +886,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -894,9 +897,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -908,7 +908,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="80">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -922,7 +922,112 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
     </dxf>
     <dxf>
       <alignment horizontal="right"/>
@@ -973,10 +1078,13 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1021,42 +1129,6 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -1064,198 +1136,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -9051,7 +8931,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1800" baseline="0"/>
-            <a:t> the below analysis, we are able to identify the gap an organization has against the our IPAC matrix. The gap is identified through correlating between the Responsiblity and the Knowledge areas shown in the two tables below.</a:t>
+            <a:t> the below analysis, we are able to identify the gap an organization has against our IPAC matrix. The gap is identified through correlating between the Responsiblity and the Knowledge areas shown in the two tables below.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10412,7 +10292,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Waseem Ajrab" refreshedDate="44013.501995138889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="503" xr:uid="{FAA8961B-A66E-3345-90A0-733DCC4F1D94}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="wajrab Ajrab" refreshedDate="44214.446986111114" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="503" xr:uid="{FAA8961B-A66E-3345-90A0-733DCC4F1D94}">
   <cacheSource type="worksheet">
     <worksheetSource name="=Export"/>
   </cacheSource>
@@ -10423,9 +10303,9 @@
         <n v="2"/>
         <n v="3"/>
         <s v=""/>
-        <n v="5" u="1"/>
         <n v="6" u="1"/>
         <n v="4" u="1"/>
+        <n v="5" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Question ID" numFmtId="0">
@@ -14546,7 +14426,132 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91B5E73A-245B-AF49-B0A1-5F7FE3742691}" name="PivotTable10" cacheId="200" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF559C3B-00FF-E34E-AA77-05DED1575EBA}" name="PivotTable11" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A14:C19" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="26">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Answer ID" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="44">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0" selected="0"/>
+          <reference field="1" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="43">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight11" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91B5E73A-245B-AF49-B0A1-5F7FE3742691}" name="PivotTable10" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="V4:Z7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -14638,113 +14643,7 @@
     <dataField name="Count of Survey Taker" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="80">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight11" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE7FF5EC-61C6-9441-838F-D47FC6F8E231}" name="PivotTable15" cacheId="200" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="V15:Y18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="26">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item x="22"/>
-        <item h="1" x="23"/>
-        <item h="1" x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
-      <items count="18">
-        <item x="10"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item m="1" x="16"/>
-        <item x="0"/>
-        <item m="1" x="15"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="22"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Survey Taker" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="119">
+    <format dxfId="79">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -14761,39 +14660,39 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF559C3B-00FF-E34E-AA77-05DED1575EBA}" name="PivotTable11" cacheId="200" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A14:C19" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19069E49-8026-BE42-98F1-981ED434A8BE}" name="PivotTable13" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" colHeaderCaption="CSF/Area">
+  <location ref="E18:L23" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item m="1" x="5"/>
         <item m="1" x="6"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="3"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="26">
         <item h="1" x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item h="1" x="5"/>
         <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
         <item h="1" x="17"/>
         <item h="1" x="18"/>
         <item h="1" x="19"/>
@@ -14805,14 +14704,40 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="5"/>
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="13">
+        <item h="1" m="1" x="11"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item h="1" x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
-    <field x="1"/>
+    <field x="3"/>
   </rowFields>
   <rowItems count="4">
     <i>
@@ -14831,44 +14756,66 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Average of Answer ID" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Number Rep" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="85">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="0" selected="0"/>
-          <reference field="1" count="0" selected="0"/>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    <format dxfId="48">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    <format dxfId="47">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="1" count="0"/>
+          <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="1" count="0"/>
+          <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
@@ -14886,7 +14833,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E773519-6314-274D-BB8E-DCF98693F974}" name="PivotTable9" cacheId="200" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E773519-6314-274D-BB8E-DCF98693F974}" name="PivotTable9" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="N4:T9" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -14894,9 +14841,9 @@
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item m="1" x="5"/>
         <item m="1" x="6"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="3"/>
       </items>
     </pivotField>
@@ -15009,13 +14956,13 @@
     <dataField name="Sum of Number Rep" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="91">
+    <format dxfId="55">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="4">
@@ -15027,10 +14974,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="52">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -15040,7 +14987,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -15064,7 +15011,235 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C04B074-7A6C-A448-8CBA-95E4E0358156}" name="PivotTable12" cacheId="200" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E04B3E6-FF9C-1F4B-9AD0-699EFB1E10B5}" name="PivotTable8" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A4:C9" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="26">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Answer ID" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="60">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0" selected="0"/>
+          <reference field="1" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight11" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2504B341-B785-874A-A930-62693C658DF9}" name="PivotTable16" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="V26:X29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="26">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item x="23"/>
+        <item h="1" x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="18">
+        <item x="10"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item m="1" x="16"/>
+        <item x="0"/>
+        <item m="1" x="15"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="23"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Survey Taker" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="61">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight11" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C04B074-7A6C-A448-8CBA-95E4E0358156}" name="PivotTable12" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A24:C29" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -15072,9 +15247,9 @@
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item m="1" x="5"/>
         <item m="1" x="6"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="3"/>
       </items>
     </pivotField>
@@ -15141,7 +15316,7 @@
     <dataField name="Average of Answer ID" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="96">
+    <format dxfId="66">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0" selected="0"/>
@@ -15149,13 +15324,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="65">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="64">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -15165,7 +15340,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -15188,8 +15363,114 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02C8F3BE-635A-2A42-97CE-868C4685CD2C}" name="PivotTable14" cacheId="200" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE7FF5EC-61C6-9441-838F-D47FC6F8E231}" name="PivotTable15" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="V15:Y18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="26">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="18">
+        <item x="10"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item m="1" x="16"/>
+        <item x="0"/>
+        <item m="1" x="15"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="22"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Survey Taker" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="67">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight11" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02C8F3BE-635A-2A42-97CE-868C4685CD2C}" name="PivotTable14" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="N18:T23" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -15197,9 +15478,9 @@
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item m="1" x="5"/>
         <item m="1" x="6"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="3"/>
       </items>
     </pivotField>
@@ -15312,13 +15593,13 @@
     <dataField name="Sum of Number Rep" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="102">
+    <format dxfId="73">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="4">
@@ -15330,10 +15611,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="99">
+    <format dxfId="70">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -15343,7 +15624,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -15366,8 +15647,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AB55B49-9550-AF42-AF5D-03745712DCAC}" name="PivotTable5" cacheId="200" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" colHeaderCaption="CSF/Area">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AB55B49-9550-AF42-AF5D-03745712DCAC}" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" colHeaderCaption="CSF/Area">
   <location ref="E4:L9" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -15375,9 +15656,9 @@
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item m="1" x="5"/>
         <item m="1" x="6"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="3"/>
       </items>
     </pivotField>
@@ -15493,20 +15774,20 @@
     <dataField name="Sum of Number Rep" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="107">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="77">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="76">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -15516,7 +15797,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="103">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -15525,407 +15806,6 @@
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight11" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19069E49-8026-BE42-98F1-981ED434A8BE}" name="PivotTable13" cacheId="200" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" colHeaderCaption="CSF/Area">
-  <location ref="E18:L23" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="26">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" x="22"/>
-        <item h="1" x="23"/>
-        <item h="1" x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="5"/>
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
-      <items count="13">
-        <item h="1" m="1" x="11"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item h="1" x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Number Rep" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="112">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="111">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="110">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="109">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="108">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight11" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E04B3E6-FF9C-1F4B-9AD0-699EFB1E10B5}" name="PivotTable8" cacheId="200" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A4:C9" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="26">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" x="22"/>
-        <item h="1" x="23"/>
-        <item h="1" x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Answer ID" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="117">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="0" selected="0"/>
-          <reference field="1" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="116">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="115">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="114">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="113">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight11" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2504B341-B785-874A-A930-62693C658DF9}" name="PivotTable16" cacheId="200" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="V26:X29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="26">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" x="22"/>
-        <item x="23"/>
-        <item h="1" x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
-      <items count="18">
-        <item x="10"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item m="1" x="16"/>
-        <item x="0"/>
-        <item m="1" x="15"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="23"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Survey Taker" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="118">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight11" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -16240,7 +16120,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="116" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="116" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -16282,8 +16162,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BA99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AX16" sqref="AX16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16319,14 +16199,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C2" s="3"/>
@@ -17024,105 +16904,105 @@
       <c r="AP50" s="1"/>
     </row>
     <row r="52" spans="1:46" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N52" s="81" t="s">
+      <c r="N52" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-      <c r="Q52" s="83"/>
-      <c r="S52" s="81" t="s">
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="77"/>
+      <c r="S52" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="T52" s="82"/>
-      <c r="U52" s="82"/>
-      <c r="V52" s="83"/>
+      <c r="T52" s="76"/>
+      <c r="U52" s="76"/>
+      <c r="V52" s="77"/>
     </row>
     <row r="53" spans="1:46" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N53" s="74" t="s">
+      <c r="N53" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="O53" s="75"/>
-      <c r="P53" s="75"/>
+      <c r="O53" s="79"/>
+      <c r="P53" s="79"/>
       <c r="Q53" s="69">
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$15,"Answer ID",1),0)</f>
         <v>0</v>
       </c>
-      <c r="S53" s="74" t="s">
+      <c r="S53" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="T53" s="75"/>
-      <c r="U53" s="75"/>
+      <c r="T53" s="79"/>
+      <c r="U53" s="79"/>
       <c r="V53" s="69">
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$26,"Answer ID",1),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:46" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N54" s="74" t="s">
+      <c r="N54" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="O54" s="75"/>
-      <c r="P54" s="75"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="79"/>
       <c r="Q54" s="69">
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$15,"Answer ID",2),0)</f>
         <v>0</v>
       </c>
-      <c r="S54" s="74" t="s">
+      <c r="S54" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="T54" s="75"/>
-      <c r="U54" s="75"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
       <c r="V54" s="69">
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$26,"Answer ID",2),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:46" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N55" s="74" t="s">
+      <c r="N55" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="O55" s="75"/>
-      <c r="P55" s="75"/>
+      <c r="O55" s="79"/>
+      <c r="P55" s="79"/>
       <c r="Q55" s="69">
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$15,"Answer ID",3),0)</f>
         <v>2</v>
       </c>
-      <c r="S55" s="74" t="s">
+      <c r="S55" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="T55" s="75"/>
-      <c r="U55" s="75"/>
+      <c r="T55" s="79"/>
+      <c r="U55" s="79"/>
       <c r="V55" s="69">
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$26,"Answer ID",3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:46" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N56" s="74" t="s">
+      <c r="N56" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="O56" s="75"/>
-      <c r="P56" s="75"/>
+      <c r="O56" s="79"/>
+      <c r="P56" s="79"/>
       <c r="Q56" s="69">
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$15,"Answer ID",4),0)</f>
         <v>0</v>
       </c>
-      <c r="S56" s="76" t="s">
+      <c r="S56" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="T56" s="77"/>
-      <c r="U56" s="77"/>
+      <c r="T56" s="82"/>
+      <c r="U56" s="82"/>
       <c r="V56" s="70">
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$26,"Answer ID",4),0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:46" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N57" s="76" t="s">
+      <c r="N57" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="O57" s="77"/>
-      <c r="P57" s="77"/>
+      <c r="O57" s="82"/>
+      <c r="P57" s="82"/>
       <c r="Q57" s="70">
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$15,"Answer ID",5),0)</f>
         <v>1</v>
@@ -17141,13 +17021,13 @@
       <c r="V61" s="10"/>
     </row>
     <row r="62" spans="1:46" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="84"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
+      <c r="A62" s="74"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
       <c r="H62" s="32"/>
       <c r="U62" s="10"/>
       <c r="V62" s="10"/>
@@ -17444,11 +17324,8 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="T68:T70"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="T71:T74"/>
     <mergeCell ref="BA31:BA33"/>
     <mergeCell ref="BA34:BA36"/>
@@ -17458,11 +17335,14 @@
     <mergeCell ref="S54:U54"/>
     <mergeCell ref="S55:U55"/>
     <mergeCell ref="S56:U56"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="T68:T70"/>
     <mergeCell ref="N55:P55"/>
     <mergeCell ref="N56:P56"/>
     <mergeCell ref="N57:P57"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D93:H96">
     <cfRule type="colorScale" priority="27">
@@ -41563,8 +41443,8 @@
     <col min="6" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" customWidth="1"/>
     <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="14.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -42394,18 +42274,18 @@
   <sheetData>
     <row r="2" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="E3" s="85" t="s">
+      <c r="C3" s="87"/>
+      <c r="E3" s="86" t="s">
         <v>81</v>
       </c>
       <c r="F3" s="90"/>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="86"/>
+      <c r="I3" s="87"/>
       <c r="L3"/>
       <c r="M3" s="51" t="s">
         <v>49</v>
@@ -42656,10 +42536,10 @@
         <v>6.6666666666666763E-2</v>
       </c>
       <c r="G10" s="22"/>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="86"/>
+      <c r="I10" s="87"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="10"/>
@@ -43113,22 +42993,22 @@
       <c r="H25" s="22"/>
     </row>
     <row r="28" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="86"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="89"/>
-      <c r="D28" s="88">
+      <c r="D28" s="85">
         <f>IF(AVERAGE(B29:B31)&gt;67%,Tables!I10,IF(AVERAGE(B29:B30)&gt;=65%,Tables!I6,IF(AVERAGE(B29,B31)&gt;=65%,Tables!I8,IF(AVERAGE(B30:B31)&gt;=65%,Tables!I9,IF(B29=100%,Tables!I4,IF(B30=100%,Tables!I5,IF(B31=100%,Tables!I7,"The indivial does not seem to be working in any area of the three lines of defense")))))))</f>
         <v>0</v>
       </c>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
     </row>
     <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
@@ -43139,14 +43019,14 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="C29" s="89"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
     </row>
     <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="44" t="s">
@@ -43157,14 +43037,14 @@
         <v>0.95</v>
       </c>
       <c r="C30" s="89"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
     </row>
     <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
@@ -43175,33 +43055,33 @@
         <v>0.68333333333333324</v>
       </c>
       <c r="C31" s="89"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
     </row>
     <row r="34" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="85" t="s">
+      <c r="A34" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="87" t="s">
+      <c r="B34" s="87"/>
+      <c r="C34" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="88" t="s">
+      <c r="D34" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="57" t="b">
@@ -43211,15 +43091,15 @@
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$4,"Answer ID","TRUE"),0)</f>
         <v>1</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="57" t="b">
@@ -43229,15 +43109,15 @@
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$4,"Answer ID","FALSE"),0)</f>
         <v>1</v>
       </c>
-      <c r="C36" s="87"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
     </row>
     <row r="37" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="57" t="s">
@@ -43247,28 +43127,28 @@
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$4,"Answer ID","Overrated"),0)</f>
         <v>1</v>
       </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
     </row>
     <row r="41" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="87" t="s">
+      <c r="B41" s="87"/>
+      <c r="C41" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="M41" s="85" t="s">
+      <c r="M41" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="N41" s="86"/>
+      <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="57" t="s">
@@ -43278,7 +43158,7 @@
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$15,"Answer ID",1),0)</f>
         <v>0</v>
       </c>
-      <c r="C42" s="87"/>
+      <c r="C42" s="88"/>
       <c r="M42" s="57" t="s">
         <v>87</v>
       </c>
@@ -43295,7 +43175,7 @@
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$15,"Answer ID",2),0)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="87"/>
+      <c r="C43" s="88"/>
       <c r="M43" s="57" t="s">
         <v>89</v>
       </c>
@@ -43303,20 +43183,20 @@
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$26,"Answer ID",2),0)</f>
         <v>0</v>
       </c>
-      <c r="O43" s="87" t="s">
+      <c r="O43" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="P43" s="88" t="s">
+      <c r="P43" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="Q43" s="88"/>
-      <c r="R43" s="88"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="88"/>
-      <c r="U43" s="88"/>
-      <c r="V43" s="88"/>
-      <c r="W43" s="88"/>
-      <c r="X43" s="88"/>
+      <c r="Q43" s="85"/>
+      <c r="R43" s="85"/>
+      <c r="S43" s="85"/>
+      <c r="T43" s="85"/>
+      <c r="U43" s="85"/>
+      <c r="V43" s="85"/>
+      <c r="W43" s="85"/>
+      <c r="X43" s="85"/>
     </row>
     <row r="44" spans="1:24" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="57" t="s">
@@ -43326,17 +43206,17 @@
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$15,"Answer ID",3),0)</f>
         <v>2</v>
       </c>
-      <c r="C44" s="87"/>
-      <c r="D44" s="88" t="s">
+      <c r="C44" s="88"/>
+      <c r="D44" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
       <c r="M44" s="57" t="s">
         <v>91</v>
       </c>
@@ -43344,16 +43224,16 @@
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$26,"Answer ID",3),0)</f>
         <v>0</v>
       </c>
-      <c r="O44" s="87"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="88"/>
-      <c r="V44" s="88"/>
-      <c r="W44" s="88"/>
-      <c r="X44" s="88"/>
+      <c r="O44" s="88"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="85"/>
+      <c r="W44" s="85"/>
+      <c r="X44" s="85"/>
     </row>
     <row r="45" spans="1:24" ht="136" x14ac:dyDescent="0.2">
       <c r="A45" s="57" t="s">
@@ -43363,15 +43243,15 @@
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$15,"Answer ID",4),0)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
       <c r="M45" s="57" t="s">
         <v>93</v>
       </c>
@@ -43388,17 +43268,10 @@
         <f>IFERROR(GETPIVOTDATA("Survey Taker",'Data Tabels'!$V$15,"Answer ID",5),0)</f>
         <v>1</v>
       </c>
-      <c r="C46" s="87"/>
+      <c r="C46" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D44:K45"/>
-    <mergeCell ref="P43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O43:O44"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="A34:B34"/>
@@ -43409,6 +43282,13 @@
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="D44:K45"/>
+    <mergeCell ref="P43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O43:O44"/>
   </mergeCells>
   <conditionalFormatting sqref="N3">
     <cfRule type="colorScale" priority="5">
